--- a/src/assets/js/Testdata_Anand.xlsx
+++ b/src/assets/js/Testdata_Anand.xlsx
@@ -445,7 +445,7 @@
         <v>To check if we can create accout successfully</v>
       </c>
       <c r="C3" t="str">
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="D3" t="str">
         <v>1</v>
@@ -462,7 +462,7 @@
         <v>To check if we can create accout successfully</v>
       </c>
       <c r="C4" t="str">
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="D4" t="str">
         <v>1</v>
@@ -479,7 +479,7 @@
         <v>To check if we can create accout successfully</v>
       </c>
       <c r="C5" t="str">
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="D5" t="str">
         <v>1</v>

--- a/src/assets/js/Testdata_Anand.xlsx
+++ b/src/assets/js/Testdata_Anand.xlsx
@@ -496,7 +496,7 @@
         <v>To check if we can create accout successfully</v>
       </c>
       <c r="C6" t="str">
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="D6" t="str">
         <v>1</v>
@@ -513,7 +513,7 @@
         <v>To check if we can create accout successfully</v>
       </c>
       <c r="C7" t="str">
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="D7" t="str">
         <v>1</v>
@@ -530,7 +530,7 @@
         <v>To check if we can create accout successfully</v>
       </c>
       <c r="C8" t="str">
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="D8" t="str">
         <v>1</v>

--- a/src/assets/js/Testdata_Anand.xlsx
+++ b/src/assets/js/Testdata_Anand.xlsx
@@ -428,7 +428,7 @@
         <v>To add the Validate accumulated CIR claim entry is removed from balances after accidentally death claim</v>
       </c>
       <c r="C2" t="str">
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="D2" t="str">
         <v>1</v>
@@ -445,7 +445,7 @@
         <v>To check if we can create accout successfully</v>
       </c>
       <c r="C3" t="str">
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="D3" t="str">
         <v>1</v>
@@ -462,7 +462,7 @@
         <v>To check if we can create accout successfully</v>
       </c>
       <c r="C4" t="str">
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="D4" t="str">
         <v>1</v>
@@ -479,7 +479,7 @@
         <v>To check if we can create accout successfully</v>
       </c>
       <c r="C5" t="str">
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="D5" t="str">
         <v>1</v>
@@ -496,7 +496,7 @@
         <v>To check if we can create accout successfully</v>
       </c>
       <c r="C6" t="str">
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="D6" t="str">
         <v>1</v>
@@ -513,7 +513,7 @@
         <v>To check if we can create accout successfully</v>
       </c>
       <c r="C7" t="str">
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="D7" t="str">
         <v>1</v>
@@ -530,7 +530,7 @@
         <v>To check if we can create accout successfully</v>
       </c>
       <c r="C8" t="str">
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="D8" t="str">
         <v>1</v>

--- a/src/assets/js/Testdata_Anand.xlsx
+++ b/src/assets/js/Testdata_Anand.xlsx
@@ -428,7 +428,7 @@
         <v>To add the Validate accumulated CIR claim entry is removed from balances after accidentally death claim</v>
       </c>
       <c r="C2" t="str">
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="D2" t="str">
         <v>1</v>
